--- a/doc/CD审查.xlsx
+++ b/doc/CD审查.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="hcp" sheetId="4" r:id="rId1"/>
     <sheet name="hcp#7" sheetId="5" r:id="rId2"/>
+    <sheet name="hcp#20" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hcp!$A$4:$J$36</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>管理
 番号</t>
@@ -176,6 +177,120 @@
   </si>
   <si>
     <t>提示消息未更改见 hcp#7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Task
+可以将Id改为string型，方便后面操作，避免每次都parse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskStatus/TaskPriority 
+禁止用中文作为名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Program::Tasks
+应为TaskFile的成员。一个文件中 有多个Tasks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodeCheck中每次循环都在LoadXml，效率低下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadTasks整个函数构造中利用return/break/continue减少代码{}的层数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>每行代码应控制在80列(文字）左右，过长代码需要换行。
+每个函数代码控制在80行左右，过长按需进行函数抽取</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>关于函数命名，一般采用动宾结构，并且要概括函数的内容
+如： NodeCheck -&gt; CheckNodeExists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodeCheck中，即使个别Node不存在也应该作为正常数据读入。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Savefile
+变量命名不规范：e0,e1…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Addtask/Update
+参数过于多，改为Task较好
+UpdatePriority
+priority参数为什么是string类型？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L246多余空行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L22多处引用的固定字符串应定义，否则比如变成：task-&gt;Task那么需要更改的代码多处引入漏改错误</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskFile------
+L17 IsXml 和L20重复LoadXml一次，多余操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L61 仅需更新修改项目，不需要全部刷新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L47 用了FocusedItem L41用了SelectedItems，是否冲突？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L106string判空建议用 string.IsNullOrEmpty 可以把null也判出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Savefile 即使用户取消也会报错让选择路径</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高ToolStripMenuItem_Click
+中ToolStripMenuItem_Click
+一般ToolStripMenuItem_Click
+低ToolStripMenuItem_Click
+4个函数处理雷同，应函数化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormTaskList------
+L39 为什么需要try？ 其余数处也需要确认。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormTaskUpadte
+成员str意义不明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L25-34，直接取radiobutton的值，无需for
+如：radioButton1.Checked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L35 textBox1.Text已经是string类型，无需ToString()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button3_Click以外，比如直接按右上角X未处理提示消息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>为什么不用FormTaskEdit这个画面？
+FormTaskUpadte中个别控件字体也不对</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,7 +578,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="236">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2143,6 +2286,49 @@
         <a:xfrm>
           <a:off x="0" y="514350"/>
           <a:ext cx="1600000" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56332</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="485775"/>
+          <a:ext cx="6542857" cy="2476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,8 +2633,8 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2668,13 +2854,19 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="28.5">
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
@@ -2682,13 +2874,19 @@
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="28.5">
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
@@ -2696,13 +2894,19 @@
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -2710,13 +2914,19 @@
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="28.5">
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -2728,9 +2938,15 @@
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
@@ -2742,9 +2958,15 @@
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -2752,13 +2974,19 @@
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="28.5">
       <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
@@ -2766,13 +2994,19 @@
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="28.5">
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -2784,9 +3018,15 @@
       <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -2794,13 +3034,19 @@
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="28.5">
       <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
@@ -2808,13 +3054,19 @@
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="71.25">
       <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
@@ -2826,9 +3078,15 @@
       <c r="A23" s="8">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -2836,13 +3094,19 @@
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="28.5">
       <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
@@ -2850,13 +3114,19 @@
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="28.5">
       <c r="A25" s="8">
         <v>21</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
@@ -2868,9 +3138,15 @@
       <c r="A26" s="8">
         <v>22</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
@@ -2882,9 +3158,15 @@
       <c r="A27" s="8">
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
@@ -2896,9 +3178,15 @@
       <c r="A28" s="8">
         <v>24</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
@@ -2910,9 +3198,15 @@
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -2920,13 +3214,19 @@
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="71.25">
       <c r="A30" s="8">
         <v>26</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -2934,13 +3234,19 @@
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="8">
         <v>27</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
@@ -2948,13 +3254,19 @@
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="8">
         <v>28</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -2966,9 +3278,15 @@
       <c r="A33" s="8">
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -2980,9 +3298,15 @@
       <c r="A34" s="8">
         <v>30</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -2990,13 +3314,19 @@
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="28.5">
       <c r="A35" s="8">
         <v>31</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
       <c r="G35" s="14"/>
@@ -3182,923 +3512,779 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:G5 D10:G13 A6:A13 C6:G9">
-    <cfRule type="expression" dxfId="231" priority="323">
+    <cfRule type="expression" dxfId="235" priority="325">
       <formula>$H5="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="324">
+    <cfRule type="expression" dxfId="234" priority="326">
       <formula>$F5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19 D19:G19 E20:G21 D22:G24 A26:G26 A29:C29 F29:G29 A27:J28 A30:J31">
-    <cfRule type="expression" dxfId="229" priority="263">
+  <conditionalFormatting sqref="A19 D19:G19 E20:G21 D22:G24 F29:G29 A26:A31 D30:J31 D27:J28 D26:G26">
+    <cfRule type="expression" dxfId="233" priority="265">
       <formula>$H19="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="264">
+    <cfRule type="expression" dxfId="232" priority="266">
       <formula>$F19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="expression" dxfId="227" priority="261">
+    <cfRule type="expression" dxfId="231" priority="263">
       <formula>$H14="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="262">
+    <cfRule type="expression" dxfId="230" priority="264">
       <formula>$F14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="225" priority="259">
+    <cfRule type="expression" dxfId="229" priority="261">
       <formula>$H14="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="260">
+    <cfRule type="expression" dxfId="228" priority="262">
       <formula>$F14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="expression" dxfId="223" priority="257">
+    <cfRule type="expression" dxfId="227" priority="259">
       <formula>$H15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="258">
+    <cfRule type="expression" dxfId="226" priority="260">
       <formula>$F15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="221" priority="255">
+    <cfRule type="expression" dxfId="225" priority="257">
       <formula>$H15="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="256">
+    <cfRule type="expression" dxfId="224" priority="258">
       <formula>$F15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="219" priority="253">
+    <cfRule type="expression" dxfId="223" priority="255">
       <formula>$H16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="254">
+    <cfRule type="expression" dxfId="222" priority="256">
       <formula>$F16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="217" priority="251">
+  <conditionalFormatting sqref="A16:A18">
+    <cfRule type="expression" dxfId="219" priority="251">
       <formula>$H16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="252">
+    <cfRule type="expression" dxfId="218" priority="252">
       <formula>$F16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A18">
-    <cfRule type="expression" dxfId="215" priority="249">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="217" priority="247">
+      <formula>$H17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="248">
+      <formula>$F17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="213" priority="241">
+      <formula>$H17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="242">
+      <formula>$F17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="211" priority="239">
+      <formula>$H18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="240">
+      <formula>$F18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="209" priority="233">
+      <formula>$H18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="234">
+      <formula>$F18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F18">
+    <cfRule type="expression" dxfId="199" priority="219">
+      <formula>$H14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="220">
+      <formula>$F14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="197" priority="217">
+      <formula>$H14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="218">
+      <formula>$F14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G18">
+    <cfRule type="expression" dxfId="195" priority="215">
+      <formula>$H15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="216">
+      <formula>$F15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20 A20:A24">
+    <cfRule type="expression" dxfId="189" priority="203">
+      <formula>$H20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="204">
+      <formula>$F20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="183" priority="197">
+      <formula>$H21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="198">
+      <formula>$F21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:G22">
+    <cfRule type="expression" dxfId="173" priority="179">
+      <formula>$H19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="180">
+      <formula>$F19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25 D25:G25">
+    <cfRule type="expression" dxfId="171" priority="177">
+      <formula>$H25="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="178">
+      <formula>$F25&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:J13">
+    <cfRule type="expression" dxfId="169" priority="175">
+      <formula>$H5="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="176">
+      <formula>$F5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="expression" dxfId="167" priority="173">
+      <formula>$H14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="174">
+      <formula>$F14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J15">
+    <cfRule type="expression" dxfId="165" priority="171">
+      <formula>$H15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="172">
+      <formula>$F15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:J18">
+    <cfRule type="expression" dxfId="163" priority="169">
+      <formula>$H18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="170">
+      <formula>$F18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="161" priority="167">
+      <formula>$H15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="168">
+      <formula>$F15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="159" priority="165">
+      <formula>$H14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="166">
+      <formula>$F14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:J17">
+    <cfRule type="expression" dxfId="157" priority="163">
+      <formula>$H17="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="164">
+      <formula>$F17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="expression" dxfId="155" priority="161">
+      <formula>$H14="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="162">
+      <formula>$F14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:J15">
+    <cfRule type="expression" dxfId="153" priority="159">
+      <formula>$H15="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="160">
+      <formula>$F15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="151" priority="157">
+      <formula>$H18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="158">
+      <formula>$F18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:J18">
+    <cfRule type="expression" dxfId="149" priority="155">
+      <formula>$H18="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="156">
+      <formula>$F18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:J19">
+    <cfRule type="expression" dxfId="147" priority="153">
+      <formula>$H19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="154">
+      <formula>$F19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="145" priority="151">
+      <formula>$H19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="152">
+      <formula>$F19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:J19">
+    <cfRule type="expression" dxfId="143" priority="149">
+      <formula>$H19="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="150">
+      <formula>$F19&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:J20">
+    <cfRule type="expression" dxfId="141" priority="147">
+      <formula>$H20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="148">
+      <formula>$F20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="139" priority="145">
+      <formula>$H20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="146">
+      <formula>$F20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:J20">
+    <cfRule type="expression" dxfId="137" priority="143">
+      <formula>$H20="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>$F20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:J21">
+    <cfRule type="expression" dxfId="135" priority="141">
+      <formula>$H21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="142">
+      <formula>$F21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="133" priority="139">
+      <formula>$H21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="140">
+      <formula>$F21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:J21">
+    <cfRule type="expression" dxfId="131" priority="137">
+      <formula>$H21="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="138">
+      <formula>$F21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:J22">
+    <cfRule type="expression" dxfId="129" priority="135">
+      <formula>$H22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="136">
+      <formula>$F22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="127" priority="133">
+      <formula>$H22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="134">
+      <formula>$F22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="expression" dxfId="125" priority="131">
+      <formula>$H22="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="132">
+      <formula>$F22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:J23">
+    <cfRule type="expression" dxfId="123" priority="129">
+      <formula>$H23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="130">
+      <formula>$F23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="121" priority="127">
+      <formula>$H23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="128">
+      <formula>$F23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:J23">
+    <cfRule type="expression" dxfId="119" priority="125">
+      <formula>$H23="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="126">
+      <formula>$F23&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:J24">
+    <cfRule type="expression" dxfId="117" priority="123">
+      <formula>$H24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="124">
+      <formula>$F24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="expression" dxfId="115" priority="121">
+      <formula>$H24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="122">
+      <formula>$F24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:J24">
+    <cfRule type="expression" dxfId="113" priority="119">
+      <formula>$H24="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="120">
+      <formula>$F24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:J16">
+    <cfRule type="expression" dxfId="111" priority="117">
       <formula>$H16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="250">
+    <cfRule type="expression" dxfId="110" priority="118">
       <formula>$F16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="213" priority="245">
-      <formula>$H17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="246">
-      <formula>$F17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="211" priority="243">
-      <formula>$H17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="244">
-      <formula>$F17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="209" priority="239">
-      <formula>$H17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="240">
-      <formula>$F17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="207" priority="237">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="238">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="205" priority="231">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="232">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="203" priority="227">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="109" priority="115">
       <formula>$H16="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="228">
+    <cfRule type="expression" dxfId="108" priority="116">
       <formula>$F16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="201" priority="225">
-      <formula>$H17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="226">
-      <formula>$F17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="199" priority="221">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="222">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="197" priority="219">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="220">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F18">
-    <cfRule type="expression" dxfId="195" priority="217">
-      <formula>$H14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="218">
-      <formula>$F14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="193" priority="215">
-      <formula>$H14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="216">
-      <formula>$F14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G18">
-    <cfRule type="expression" dxfId="191" priority="213">
-      <formula>$H15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="214">
-      <formula>$F15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="189" priority="207">
-      <formula>$H19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="208">
-      <formula>$F19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="187" priority="205">
-      <formula>$H19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="206">
-      <formula>$F19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20 A20:A24">
-    <cfRule type="expression" dxfId="185" priority="201">
-      <formula>$H20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="202">
-      <formula>$F20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="183" priority="199">
-      <formula>$H20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="200">
-      <formula>$F20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="181" priority="197">
-      <formula>$H20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="198">
-      <formula>$F20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="179" priority="195">
-      <formula>$H21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="196">
-      <formula>$F21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="177" priority="193">
-      <formula>$H21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="194">
-      <formula>$F21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="175" priority="191">
-      <formula>$H21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="192">
-      <formula>$F21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="expression" dxfId="173" priority="189">
-      <formula>$H22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="190">
-      <formula>$F22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B24">
-    <cfRule type="expression" dxfId="171" priority="187">
-      <formula>$H22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="188">
-      <formula>$F22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:G22">
-    <cfRule type="expression" dxfId="169" priority="177">
-      <formula>$H19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="178">
-      <formula>$F19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:G25">
-    <cfRule type="expression" dxfId="167" priority="175">
+  <conditionalFormatting sqref="I16:J16">
+    <cfRule type="expression" dxfId="107" priority="113">
+      <formula>$H16="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="114">
+      <formula>$F16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:J25">
+    <cfRule type="expression" dxfId="105" priority="111">
       <formula>$H25="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="176">
+    <cfRule type="expression" dxfId="104" priority="112">
       <formula>$F25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J13">
-    <cfRule type="expression" dxfId="165" priority="173">
-      <formula>$H5="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="174">
-      <formula>$F5&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
-    <cfRule type="expression" dxfId="163" priority="171">
-      <formula>$H14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="172">
-      <formula>$F14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J15">
-    <cfRule type="expression" dxfId="161" priority="169">
-      <formula>$H15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="170">
-      <formula>$F15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:J18">
-    <cfRule type="expression" dxfId="159" priority="167">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="168">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="157" priority="165">
-      <formula>$H15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="166">
-      <formula>$F15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="155" priority="163">
-      <formula>$H14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="164">
-      <formula>$F14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" dxfId="153" priority="161">
-      <formula>$H17="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="162">
-      <formula>$F17&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
-    <cfRule type="expression" dxfId="151" priority="159">
-      <formula>$H14="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="160">
-      <formula>$F14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J15">
-    <cfRule type="expression" dxfId="149" priority="157">
-      <formula>$H15="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="158">
-      <formula>$F15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="147" priority="155">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="156">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:J18">
-    <cfRule type="expression" dxfId="145" priority="153">
-      <formula>$H18="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="154">
-      <formula>$F18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="143" priority="151">
-      <formula>$H19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="152">
-      <formula>$F19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="141" priority="149">
-      <formula>$H19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="150">
-      <formula>$F19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:J19">
-    <cfRule type="expression" dxfId="139" priority="147">
-      <formula>$H19="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="148">
-      <formula>$F19&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:J20">
-    <cfRule type="expression" dxfId="137" priority="145">
-      <formula>$H20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="146">
-      <formula>$F20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="135" priority="143">
-      <formula>$H20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="144">
-      <formula>$F20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:J20">
-    <cfRule type="expression" dxfId="133" priority="141">
-      <formula>$H20="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="142">
-      <formula>$F20&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="131" priority="139">
-      <formula>$H21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="140">
-      <formula>$F21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="129" priority="137">
-      <formula>$H21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="138">
-      <formula>$F21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:J21">
-    <cfRule type="expression" dxfId="127" priority="135">
-      <formula>$H21="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="136">
-      <formula>$F21&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:J22">
-    <cfRule type="expression" dxfId="125" priority="133">
-      <formula>$H22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="134">
-      <formula>$F22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="123" priority="131">
-      <formula>$H22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="132">
-      <formula>$F22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="expression" dxfId="121" priority="129">
-      <formula>$H22="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="130">
-      <formula>$F22&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:J23">
-    <cfRule type="expression" dxfId="119" priority="127">
-      <formula>$H23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="128">
-      <formula>$F23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="117" priority="125">
-      <formula>$H23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="126">
-      <formula>$F23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:J23">
-    <cfRule type="expression" dxfId="115" priority="123">
-      <formula>$H23="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="124">
-      <formula>$F23&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:J24">
-    <cfRule type="expression" dxfId="113" priority="121">
-      <formula>$H24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="122">
-      <formula>$F24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="111" priority="119">
-      <formula>$H24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="120">
-      <formula>$F24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J24">
-    <cfRule type="expression" dxfId="109" priority="117">
-      <formula>$H24="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="118">
-      <formula>$F24&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:J16">
-    <cfRule type="expression" dxfId="107" priority="115">
-      <formula>$H16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="116">
-      <formula>$F16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="105" priority="113">
-      <formula>$H16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="114">
-      <formula>$F16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J16">
-    <cfRule type="expression" dxfId="103" priority="111">
-      <formula>$H16="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="112">
-      <formula>$F16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:J25">
-    <cfRule type="expression" dxfId="101" priority="109">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="103" priority="109">
       <formula>$H25="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="110">
+    <cfRule type="expression" dxfId="102" priority="110">
       <formula>$F25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="99" priority="107">
+  <conditionalFormatting sqref="I25:J25">
+    <cfRule type="expression" dxfId="101" priority="107">
       <formula>$H25="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="108">
+    <cfRule type="expression" dxfId="100" priority="108">
       <formula>$F25&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J25">
-    <cfRule type="expression" dxfId="97" priority="105">
-      <formula>$H25="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="106">
-      <formula>$F25&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H26:J26">
-    <cfRule type="expression" dxfId="95" priority="103">
+    <cfRule type="expression" dxfId="99" priority="105">
       <formula>$H26="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="104">
+    <cfRule type="expression" dxfId="98" priority="106">
       <formula>$F26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="93" priority="101">
+    <cfRule type="expression" dxfId="97" priority="103">
       <formula>$H26="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="102">
+    <cfRule type="expression" dxfId="96" priority="104">
       <formula>$F26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="91" priority="99">
+    <cfRule type="expression" dxfId="95" priority="101">
       <formula>$H26="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="100">
+    <cfRule type="expression" dxfId="94" priority="102">
       <formula>$F26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:J47 A33">
-    <cfRule type="expression" dxfId="89" priority="97">
+    <cfRule type="expression" dxfId="93" priority="99">
       <formula>$H33="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="98">
+    <cfRule type="expression" dxfId="92" priority="100">
       <formula>$F33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A34">
-    <cfRule type="expression" dxfId="87" priority="95">
+    <cfRule type="expression" dxfId="91" priority="97">
       <formula>$H32="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="96">
+    <cfRule type="expression" dxfId="90" priority="98">
       <formula>$F32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:J46">
-    <cfRule type="expression" dxfId="85" priority="93">
+    <cfRule type="expression" dxfId="89" priority="95">
       <formula>$H46="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="94">
+    <cfRule type="expression" dxfId="88" priority="96">
       <formula>$F46&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:J45">
-    <cfRule type="expression" dxfId="83" priority="91">
+    <cfRule type="expression" dxfId="87" priority="93">
       <formula>$H45="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="92">
+    <cfRule type="expression" dxfId="86" priority="94">
       <formula>$F45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:J44">
-    <cfRule type="expression" dxfId="81" priority="89">
+    <cfRule type="expression" dxfId="85" priority="91">
       <formula>$H44="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="90">
+    <cfRule type="expression" dxfId="84" priority="92">
       <formula>$F44&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:J43">
-    <cfRule type="expression" dxfId="79" priority="87">
+    <cfRule type="expression" dxfId="83" priority="89">
       <formula>$H43="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="88">
+    <cfRule type="expression" dxfId="82" priority="90">
       <formula>$F43&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:J42">
-    <cfRule type="expression" dxfId="77" priority="85">
+    <cfRule type="expression" dxfId="81" priority="87">
       <formula>$H42="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="86">
+    <cfRule type="expression" dxfId="80" priority="88">
       <formula>$F42&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:J41">
-    <cfRule type="expression" dxfId="75" priority="83">
+  <conditionalFormatting sqref="A41 D41:J41">
+    <cfRule type="expression" dxfId="79" priority="85">
       <formula>$H41="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84">
+    <cfRule type="expression" dxfId="78" priority="86">
       <formula>$F41&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:J36">
-    <cfRule type="expression" dxfId="73" priority="73">
+    <cfRule type="expression" dxfId="77" priority="75">
       <formula>$H36="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>$F36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="75" priority="73">
       <formula>$H35="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
+    <cfRule type="expression" dxfId="74" priority="74">
       <formula>$F35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E34">
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="73" priority="71">
       <formula>$H34="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$F34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:E33">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="71" priority="69">
       <formula>$H33="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="70" priority="70">
       <formula>$F33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:E32">
-    <cfRule type="expression" dxfId="65" priority="65">
+  <conditionalFormatting sqref="D32:E32">
+    <cfRule type="expression" dxfId="69" priority="67">
       <formula>$H32="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
+    <cfRule type="expression" dxfId="68" priority="68">
       <formula>$F32&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C33">
-    <cfRule type="expression" dxfId="63" priority="63">
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="63" priority="61">
+      <formula>$H32="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="62">
+      <formula>$F32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:G34">
+    <cfRule type="expression" dxfId="61" priority="57">
+      <formula>$H34="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="58">
+      <formula>$F34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:G33">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>$H33="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>$F33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="61" priority="61">
+  <conditionalFormatting sqref="D29:E29">
+    <cfRule type="expression" dxfId="57" priority="53">
+      <formula>$H29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="54">
+      <formula>$F29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36 D36:F36">
+    <cfRule type="expression" dxfId="55" priority="51">
+      <formula>$H36="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="52">
+      <formula>$F36&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35 D35:F35">
+    <cfRule type="expression" dxfId="53" priority="49">
+      <formula>$H35="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="50">
+      <formula>$F35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:J32">
+    <cfRule type="expression" dxfId="49" priority="45">
+      <formula>$H32="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="46">
+      <formula>$F32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:J34">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$H34="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$F34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$H32="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$F32&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:G34">
-    <cfRule type="expression" dxfId="57" priority="55">
-      <formula>$H34="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56">
-      <formula>$F34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33:G33">
-    <cfRule type="expression" dxfId="55" priority="53">
+  <conditionalFormatting sqref="A40 D40:J40">
+    <cfRule type="expression" dxfId="45" priority="41">
+      <formula>$H40="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="42">
+      <formula>$F40&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 D39:E39 H39:J39">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>$H39="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
+      <formula>$F39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38 E38 H38:J38">
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>$H38="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
+      <formula>$F38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37 H37:J37 D37">
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>$H37="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>$F37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="37" priority="33">
+      <formula>$H38="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="34">
+      <formula>$F38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="31" priority="27">
+      <formula>$H37="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="28">
+      <formula>$F37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:J29">
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>$H29="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>$F29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:J33">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>$H33="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>$F33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:E29">
-    <cfRule type="expression" dxfId="53" priority="51">
-      <formula>$H29="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>$F29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36 D36:F36">
-    <cfRule type="expression" dxfId="51" priority="49">
+  <conditionalFormatting sqref="H35:J35">
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>$H35="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>$F35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$H36="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$F36&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35">
-    <cfRule type="expression" dxfId="49" priority="47">
-      <formula>$H35="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>$F35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="47" priority="45">
-      <formula>$H36="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$F36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:J32">
-    <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$H32="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$F32&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:J34">
-    <cfRule type="expression" dxfId="43" priority="41">
-      <formula>$H34="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>$F34&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40 D40:J40">
-    <cfRule type="expression" dxfId="41" priority="39">
-      <formula>$H40="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$F40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39 D39:E39 H39:J39">
-    <cfRule type="expression" dxfId="39" priority="37">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="21" priority="17">
+      <formula>$H37="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$F37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="19" priority="15">
+      <formula>$H37="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>$F37&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$H38="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$F38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>$H38="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$F38&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$H39="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$F39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38 E38 H38:J38">
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$H38="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$F38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:D37 H37:J37">
-    <cfRule type="expression" dxfId="35" priority="33">
-      <formula>$H37="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$F37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="33" priority="31">
-      <formula>$H38="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$F38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C39">
-    <cfRule type="expression" dxfId="31" priority="29">
-      <formula>$H38="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>$F38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:C40">
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$H40="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$F40&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="27" priority="25">
-      <formula>$H37="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$F37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:J29">
-    <cfRule type="expression" dxfId="25" priority="23">
-      <formula>$H29="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$F29&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:J33">
-    <cfRule type="expression" dxfId="23" priority="21">
-      <formula>$H33="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$F33&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:J35">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$H35="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$F35&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>$H36="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$F36&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>$H37="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$F37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>$H37="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$F37&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$H38="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$F38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>$H38="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$F38&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="9" priority="7">
+  <conditionalFormatting sqref="G39">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$H39="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$F39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$H39="済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$F39&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C15 C10:C11">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="B12:C12 C10:C12">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$H10="済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$F10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$H6="済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$F6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C41">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$H6="済"</formula>
+      <formula>$H13="済"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$F6&lt;&gt;""</formula>
+      <formula>$F13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4128,4 +4314,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>